--- a/by-springBoot-lesson02/src/main/resources/excelTemplate/部门采购清单测试数据模板.xlsx
+++ b/by-springBoot-lesson02/src/main/resources/excelTemplate/部门采购清单测试数据模板.xlsx
@@ -27,57 +27,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="238">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>department_id</t>
-  </si>
-  <si>
-    <t>department_name</t>
-  </si>
-  <si>
-    <t>item_name</t>
-  </si>
-  <si>
-    <t>item_category</t>
-  </si>
-  <si>
-    <t>specification</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>estimated_price</t>
-  </si>
-  <si>
-    <t>estimated_total</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t>urgency_level</t>
-  </si>
-  <si>
-    <t>required_date</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>applicant_id</t>
-  </si>
-  <si>
-    <t>applicant_name</t>
-  </si>
-  <si>
-    <t>ae4c8b9e7f3a4d2b1c5f6e8d9a0b1c2d</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="207">
+  <si>
+    <t>部门ID</t>
+  </si>
+  <si>
+    <t>部门名称</t>
+  </si>
+  <si>
+    <t>物品名称</t>
+  </si>
+  <si>
+    <t>物品分类</t>
+  </si>
+  <si>
+    <t>规格型号</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>采购数量</t>
+  </si>
+  <si>
+    <t>预估单价</t>
+  </si>
+  <si>
+    <t>预估总价</t>
+  </si>
+  <si>
+    <t>用途说明</t>
+  </si>
+  <si>
+    <t>紧急程度</t>
+  </si>
+  <si>
+    <t>需求日期</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>申请人ID</t>
+  </si>
+  <si>
+    <t>申请人姓名</t>
   </si>
   <si>
     <t>DEPT001</t>
@@ -107,9 +101,6 @@
     <t>张三</t>
   </si>
   <si>
-    <t>b3f7a2c8d9e1f4g5h6i7j8k9l0m1n2</t>
-  </si>
-  <si>
     <t>DEPT002</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>李四</t>
   </si>
   <si>
-    <t>c2d3e4f5a6b7c8d9e0f1a2b3c4d5e6</t>
-  </si>
-  <si>
     <t>DEPT003</t>
   </si>
   <si>
@@ -164,9 +152,6 @@
     <t>王五</t>
   </si>
   <si>
-    <t>d4e5f6a7b8c9d0e1f2a3b4c5d6e7f8</t>
-  </si>
-  <si>
     <t>机械键盘</t>
   </si>
   <si>
@@ -188,9 +173,6 @@
     <t>赵六</t>
   </si>
   <si>
-    <t>e5f6a7b8c9d0e1f2a3b4c5d6e7f8g9</t>
-  </si>
-  <si>
     <t>DEPT004</t>
   </si>
   <si>
@@ -212,9 +194,6 @@
     <t>钱七</t>
   </si>
   <si>
-    <t>f6a7b8c9d0e1f2a3b4c5d6e7f8g9h0</t>
-  </si>
-  <si>
     <t>数码相机</t>
   </si>
   <si>
@@ -230,9 +209,6 @@
     <t>孙八</t>
   </si>
   <si>
-    <t>g7h8i9j0k1l2m3n4o5p6q7r8s9t0u1</t>
-  </si>
-  <si>
     <t>DEPT005</t>
   </si>
   <si>
@@ -260,9 +236,6 @@
     <t>周九</t>
   </si>
   <si>
-    <t>h8i9j0k1l2m3n4o5p6q7r8s9t0u1v2</t>
-  </si>
-  <si>
     <t>指纹考勤机</t>
   </si>
   <si>
@@ -278,9 +251,6 @@
     <t>吴十</t>
   </si>
   <si>
-    <t>i9j0k1l2m3n4o5p6q7r8s9t0u1v2w3</t>
-  </si>
-  <si>
     <t>服务器</t>
   </si>
   <si>
@@ -299,9 +269,6 @@
     <t>郑十一</t>
   </si>
   <si>
-    <t>j0k1l2m3n4o5p6q7r8s9t0u1v2w3x4</t>
-  </si>
-  <si>
     <t>DEPT006</t>
   </si>
   <si>
@@ -326,9 +293,6 @@
     <t>王十二</t>
   </si>
   <si>
-    <t>k1l2m3n4o5p6q7r8s9t0u1v2w3x4y5</t>
-  </si>
-  <si>
     <t>装订机</t>
   </si>
   <si>
@@ -344,9 +308,6 @@
     <t>李十三</t>
   </si>
   <si>
-    <t>l2m3n4o5p6q7r8s9t0u1v2w3x4y5z6</t>
-  </si>
-  <si>
     <t>移动硬盘</t>
   </si>
   <si>
@@ -365,9 +326,6 @@
     <t>张十四</t>
   </si>
   <si>
-    <t>m3n4o5p6q7r8s9t0u1v2w3x4y5z6a7</t>
-  </si>
-  <si>
     <t>饮水机</t>
   </si>
   <si>
@@ -386,9 +344,6 @@
     <t>刘十五</t>
   </si>
   <si>
-    <t>n4o5p6q7r8s9t0u1v2w3x4y5z6a7b8</t>
-  </si>
-  <si>
     <t>显示器</t>
   </si>
   <si>
@@ -404,9 +359,6 @@
     <t>陈十六</t>
   </si>
   <si>
-    <t>o5p6q7r8s9t0u1v2w3x4y5z6a7b8c9</t>
-  </si>
-  <si>
     <t>DEPT007</t>
   </si>
   <si>
@@ -431,9 +383,6 @@
     <t>杨十七</t>
   </si>
   <si>
-    <t>p6q7r8s9t0u1v2w3x4y5z6a7b8c9d0</t>
-  </si>
-  <si>
     <t>打印机</t>
   </si>
   <si>
@@ -449,9 +398,6 @@
     <t>黄十八</t>
   </si>
   <si>
-    <t>q7r8s9t0u1v2w3x4y5z6a7b8c9d0e1</t>
-  </si>
-  <si>
     <t>UPS电源</t>
   </si>
   <si>
@@ -470,9 +416,6 @@
     <t>周十九</t>
   </si>
   <si>
-    <t>r8s9t0u1v2w3x4y5z6a7b8c9d0e1f2</t>
-  </si>
-  <si>
     <t>礼品套装</t>
   </si>
   <si>
@@ -491,9 +434,6 @@
     <t>吴二十</t>
   </si>
   <si>
-    <t>s9t0u1v2w3x4y5z6a7b8c9d0e1f2g3</t>
-  </si>
-  <si>
     <t>计算器</t>
   </si>
   <si>
@@ -515,9 +455,6 @@
     <t>郑二一</t>
   </si>
   <si>
-    <t>t0u1v2w3x4y5z6a7b8c9d0e1f2g3h4</t>
-  </si>
-  <si>
     <t>网络交换机</t>
   </si>
   <si>
@@ -533,9 +470,6 @@
     <t>王二二</t>
   </si>
   <si>
-    <t>u1v2w3x4y5z6a7b8c9d0e1f2g3h4i5</t>
-  </si>
-  <si>
     <t>文件柜</t>
   </si>
   <si>
@@ -551,9 +485,6 @@
     <t>李二三</t>
   </si>
   <si>
-    <t>v2w3x4y5z6a7b8c9d0e1f2g3h4i5j6</t>
-  </si>
-  <si>
     <t>录音笔</t>
   </si>
   <si>
@@ -572,9 +503,6 @@
     <t>张二四</t>
   </si>
   <si>
-    <t>w3x4y5z6a7b8c9d0e1f2g3h4i5j6k7</t>
-  </si>
-  <si>
     <t>办公电话</t>
   </si>
   <si>
@@ -596,9 +524,6 @@
     <t>刘二五</t>
   </si>
   <si>
-    <t>x4y5z6a7b8c9d0e1f2g3h4i5j6k7l8</t>
-  </si>
-  <si>
     <t>易拉宝</t>
   </si>
   <si>
@@ -617,9 +542,6 @@
     <t>陈二六</t>
   </si>
   <si>
-    <t>y5z6a7b8c9d0e1f2g3h4i5j6k7l8m9</t>
-  </si>
-  <si>
     <t>测试手机</t>
   </si>
   <si>
@@ -638,9 +560,6 @@
     <t>杨二七</t>
   </si>
   <si>
-    <t>z6a7b8c9d0e1f2g3h4i5j6k7l8m9n0</t>
-  </si>
-  <si>
     <t>开发板</t>
   </si>
   <si>
@@ -659,9 +578,6 @@
     <t>黄二八</t>
   </si>
   <si>
-    <t>a7b8c9d0e1f2g3h4i5j6k7l8m9n0o1</t>
-  </si>
-  <si>
     <t>碎纸机</t>
   </si>
   <si>
@@ -677,9 +593,6 @@
     <t>周二九</t>
   </si>
   <si>
-    <t>b8c9d0e1f2g3h4i5j6k7l8m9n0o1p2</t>
-  </si>
-  <si>
     <t>绿植</t>
   </si>
   <si>
@@ -701,9 +614,6 @@
     <t>吴三十</t>
   </si>
   <si>
-    <t>c9d0e1f2g3h4i5j6k7l8m9n0o1p2q3</t>
-  </si>
-  <si>
     <t>视频会议设备</t>
   </si>
   <si>
@@ -720,9 +630,6 @@
   </si>
   <si>
     <t>郑三一</t>
-  </si>
-  <si>
-    <t>d0e1f2g3h4i5j6k7l8m9n0o1p2q3r4</t>
   </si>
   <si>
     <t>办公软件</t>
@@ -1896,29 +1803,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
-    <col min="9" max="10" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="23.375" customWidth="1"/>
-    <col min="12" max="13" width="14.875" customWidth="1"/>
-    <col min="15" max="15" width="13.75" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="8" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="11" max="12" width="14.875" customWidth="1"/>
+    <col min="14" max="14" width="13.75" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1964,1508 +1870,1415 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>12000</v>
+      </c>
+      <c r="I2">
+        <v>60000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45342</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>5500</v>
+      </c>
+      <c r="I3">
+        <v>11000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45366</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>1800</v>
+      </c>
+      <c r="I4">
+        <v>14400</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>45350</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>12000</v>
-      </c>
-      <c r="J2">
-        <v>60000</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1">
-        <v>45342</v>
-      </c>
-      <c r="N2">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>450</v>
+      </c>
+      <c r="I5">
+        <v>4500</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
+      <c r="L5" s="1">
+        <v>45332</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>5500</v>
-      </c>
-      <c r="J3">
-        <v>11000</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3" s="1">
-        <v>45366</v>
-      </c>
-      <c r="N3">
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>1800</v>
-      </c>
-      <c r="J4">
-        <v>14400</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>45350</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>450</v>
-      </c>
-      <c r="J5">
-        <v>4500</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>45332</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="O5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
       <c r="H6">
-        <v>1</v>
+        <v>3200</v>
       </c>
       <c r="I6">
         <v>3200</v>
       </c>
-      <c r="J6">
-        <v>3200</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
         <v>45347</v>
       </c>
-      <c r="N6">
+      <c r="M6">
         <v>1</v>
       </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
       <c r="O6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>18500</v>
       </c>
       <c r="I7">
         <v>18500</v>
       </c>
-      <c r="J7">
-        <v>18500</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>45361</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
         <v>64</v>
       </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>180</v>
+      </c>
+      <c r="I8">
+        <v>3600</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>45337</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>2800</v>
+      </c>
+      <c r="I9">
+        <v>8400</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>45340</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>45000</v>
+      </c>
+      <c r="I10">
+        <v>90000</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>45327</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>200</v>
+      </c>
+      <c r="I11">
+        <v>3000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>45371</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1500</v>
+      </c>
+      <c r="I12">
+        <v>3000</v>
+      </c>
+      <c r="J12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>45344</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>580</v>
+      </c>
+      <c r="I13">
+        <v>2900</v>
+      </c>
+      <c r="J13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>45334</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>650</v>
+      </c>
+      <c r="I14">
+        <v>2600</v>
+      </c>
+      <c r="J14" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>45350</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>3200</v>
+      </c>
+      <c r="I15">
+        <v>25600</v>
+      </c>
+      <c r="J15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>45356</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>350</v>
+      </c>
+      <c r="I16">
+        <v>2100</v>
+      </c>
+      <c r="J16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" s="1">
+        <v>45369</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>6800</v>
+      </c>
+      <c r="I17">
+        <v>13600</v>
+      </c>
+      <c r="J17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>45338</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>121</v>
+      </c>
+      <c r="O17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>4200</v>
+      </c>
+      <c r="I18">
+        <v>16800</v>
+      </c>
+      <c r="J18" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>45330</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>127</v>
+      </c>
+      <c r="O18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>280</v>
+      </c>
+      <c r="I19">
+        <v>14000</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>45359</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>85</v>
+      </c>
+      <c r="I20">
+        <v>425</v>
+      </c>
+      <c r="J20" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>139</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>140</v>
+      </c>
+      <c r="O20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>12500</v>
+      </c>
+      <c r="I21">
+        <v>37500</v>
+      </c>
+      <c r="J21" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>45363</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>145</v>
+      </c>
+      <c r="O21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>1200</v>
+      </c>
+      <c r="I22">
+        <v>12000</v>
+      </c>
+      <c r="J22" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>45347</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>150</v>
+      </c>
+      <c r="O22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>950</v>
+      </c>
+      <c r="I23">
+        <v>2850</v>
+      </c>
+      <c r="J23" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>45353</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>156</v>
+      </c>
+      <c r="O23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>450</v>
+      </c>
+      <c r="I24">
+        <v>5400</v>
+      </c>
+      <c r="J24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>45342</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>163</v>
+      </c>
+      <c r="O24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>150</v>
+      </c>
+      <c r="I25">
+        <v>1200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>45336</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>169</v>
+      </c>
+      <c r="O25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>5500</v>
+      </c>
+      <c r="I26">
+        <v>27500</v>
+      </c>
+      <c r="J26" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>45366</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>175</v>
+      </c>
+      <c r="O26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <v>550</v>
+      </c>
+      <c r="I27">
+        <v>11000</v>
+      </c>
+      <c r="J27" t="s">
+        <v>180</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>45350</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>181</v>
+      </c>
+      <c r="O27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>3200</v>
+      </c>
+      <c r="I28">
+        <v>6400</v>
+      </c>
+      <c r="J28" t="s">
+        <v>185</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>45340</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>186</v>
+      </c>
+      <c r="O28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>180</v>
+      </c>
+      <c r="I29">
+        <v>2700</v>
+      </c>
+      <c r="J29" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
         <v>45361</v>
       </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" t="s">
-        <v>66</v>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>193</v>
+      </c>
+      <c r="O29" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>180</v>
-      </c>
-      <c r="J8">
-        <v>3600</v>
-      </c>
-      <c r="K8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1">
-        <v>45337</v>
-      </c>
-      <c r="N8">
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>12800</v>
+      </c>
+      <c r="I30">
+        <v>25600</v>
+      </c>
+      <c r="J30" t="s">
+        <v>198</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>45344</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>199</v>
+      </c>
+      <c r="O30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31">
+        <v>25</v>
+      </c>
+      <c r="H31">
+        <v>380</v>
+      </c>
+      <c r="I31">
+        <v>9500</v>
+      </c>
+      <c r="J31" t="s">
+        <v>204</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>45356</v>
+      </c>
+      <c r="M31">
         <v>5</v>
       </c>
-      <c r="O8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>2800</v>
-      </c>
-      <c r="J9">
-        <v>8400</v>
-      </c>
-      <c r="K9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9" s="1">
-        <v>45340</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="O9" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>45000</v>
-      </c>
-      <c r="J10">
-        <v>90000</v>
-      </c>
-      <c r="K10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1">
-        <v>45327</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
-      </c>
-      <c r="O10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11">
-        <v>15</v>
-      </c>
-      <c r="I11">
-        <v>200</v>
-      </c>
-      <c r="J11">
-        <v>3000</v>
-      </c>
-      <c r="K11" t="s">
-        <v>96</v>
-      </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-      <c r="M11" s="1">
-        <v>45371</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11" t="s">
-        <v>97</v>
-      </c>
-      <c r="P11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>1500</v>
-      </c>
-      <c r="J12">
-        <v>3000</v>
-      </c>
-      <c r="K12" t="s">
-        <v>102</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12" s="1">
-        <v>45344</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>580</v>
-      </c>
-      <c r="J13">
-        <v>2900</v>
-      </c>
-      <c r="K13" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13" s="1">
-        <v>45334</v>
-      </c>
-      <c r="N13">
-        <v>5</v>
-      </c>
-      <c r="O13" t="s">
-        <v>110</v>
-      </c>
-      <c r="P13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>650</v>
-      </c>
-      <c r="J14">
-        <v>2600</v>
-      </c>
-      <c r="K14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14" s="1">
-        <v>45350</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14" t="s">
-        <v>117</v>
-      </c>
-      <c r="P14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
-      <c r="I15">
-        <v>3200</v>
-      </c>
-      <c r="J15">
-        <v>25600</v>
-      </c>
-      <c r="K15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15" s="1">
-        <v>45356</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-      <c r="O15" t="s">
-        <v>123</v>
-      </c>
-      <c r="P15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16">
-        <v>350</v>
-      </c>
-      <c r="J16">
-        <v>2100</v>
-      </c>
-      <c r="K16" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-      <c r="M16" s="1">
-        <v>45369</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16" t="s">
-        <v>132</v>
-      </c>
-      <c r="P16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>6800</v>
-      </c>
-      <c r="J17">
-        <v>13600</v>
-      </c>
-      <c r="K17" t="s">
-        <v>137</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17" s="1">
-        <v>45338</v>
-      </c>
-      <c r="N17">
-        <v>4</v>
-      </c>
-      <c r="O17" t="s">
-        <v>138</v>
-      </c>
-      <c r="P17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18">
-        <v>4200</v>
-      </c>
-      <c r="J18">
-        <v>16800</v>
-      </c>
-      <c r="K18" t="s">
-        <v>144</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1">
-        <v>45330</v>
-      </c>
-      <c r="N18">
-        <v>5</v>
-      </c>
-      <c r="O18" t="s">
-        <v>145</v>
-      </c>
-      <c r="P18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19">
-        <v>50</v>
-      </c>
-      <c r="I19">
-        <v>280</v>
-      </c>
-      <c r="J19">
-        <v>14000</v>
-      </c>
-      <c r="K19" t="s">
-        <v>151</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="M19" s="1">
-        <v>45359</v>
-      </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-      <c r="O19" t="s">
-        <v>152</v>
-      </c>
-      <c r="P19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>85</v>
-      </c>
-      <c r="J20">
-        <v>425</v>
-      </c>
-      <c r="K20" t="s">
-        <v>158</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20" t="s">
-        <v>159</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
-        <v>160</v>
-      </c>
-      <c r="P20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>12500</v>
-      </c>
-      <c r="J21">
-        <v>37500</v>
-      </c>
-      <c r="K21" t="s">
-        <v>165</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="M21" s="1">
-        <v>45363</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21" t="s">
-        <v>166</v>
-      </c>
-      <c r="P21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>170</v>
-      </c>
-      <c r="G22" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="I22">
-        <v>1200</v>
-      </c>
-      <c r="J22">
-        <v>12000</v>
-      </c>
-      <c r="K22" t="s">
-        <v>171</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="M22" s="1">
-        <v>45347</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22" t="s">
-        <v>172</v>
-      </c>
-      <c r="P22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" t="s">
-        <v>177</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>950</v>
-      </c>
-      <c r="J23">
-        <v>2850</v>
-      </c>
-      <c r="K23" t="s">
-        <v>178</v>
-      </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-      <c r="M23" s="1">
-        <v>45353</v>
-      </c>
-      <c r="N23">
-        <v>4</v>
-      </c>
-      <c r="O23" t="s">
-        <v>179</v>
-      </c>
-      <c r="P23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" t="s">
-        <v>183</v>
-      </c>
-      <c r="F24" t="s">
-        <v>184</v>
-      </c>
-      <c r="G24" t="s">
-        <v>185</v>
-      </c>
-      <c r="H24">
-        <v>12</v>
-      </c>
-      <c r="I24">
-        <v>450</v>
-      </c>
-      <c r="J24">
-        <v>5400</v>
-      </c>
-      <c r="K24" t="s">
-        <v>186</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="M24" s="1">
-        <v>45342</v>
-      </c>
-      <c r="N24">
-        <v>5</v>
-      </c>
-      <c r="O24" t="s">
-        <v>187</v>
-      </c>
-      <c r="P24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>190</v>
-      </c>
-      <c r="E25" t="s">
-        <v>191</v>
-      </c>
-      <c r="F25" t="s">
-        <v>192</v>
-      </c>
-      <c r="G25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25">
-        <v>8</v>
-      </c>
-      <c r="I25">
-        <v>150</v>
-      </c>
-      <c r="J25">
-        <v>1200</v>
-      </c>
-      <c r="K25" t="s">
-        <v>193</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1">
-        <v>45336</v>
-      </c>
-      <c r="N25">
-        <v>2</v>
-      </c>
-      <c r="O25" t="s">
-        <v>194</v>
-      </c>
-      <c r="P25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E26" t="s">
-        <v>198</v>
-      </c>
-      <c r="F26" t="s">
-        <v>199</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
-      <c r="I26">
-        <v>5500</v>
-      </c>
-      <c r="J26">
-        <v>27500</v>
-      </c>
-      <c r="K26" t="s">
-        <v>200</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-      <c r="M26" s="1">
-        <v>45366</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26" t="s">
-        <v>201</v>
-      </c>
-      <c r="P26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" t="s">
-        <v>204</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="N31" t="s">
         <v>205</v>
       </c>
-      <c r="F27" t="s">
+      <c r="O31" t="s">
         <v>206</v>
-      </c>
-      <c r="G27" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27">
-        <v>20</v>
-      </c>
-      <c r="I27">
-        <v>550</v>
-      </c>
-      <c r="J27">
-        <v>11000</v>
-      </c>
-      <c r="K27" t="s">
-        <v>207</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-      <c r="M27" s="1">
-        <v>45350</v>
-      </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="O27" t="s">
-        <v>208</v>
-      </c>
-      <c r="P27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" t="s">
-        <v>212</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>3200</v>
-      </c>
-      <c r="J28">
-        <v>6400</v>
-      </c>
-      <c r="K28" t="s">
-        <v>213</v>
-      </c>
-      <c r="L28">
-        <v>2</v>
-      </c>
-      <c r="M28" s="1">
-        <v>45340</v>
-      </c>
-      <c r="N28">
-        <v>3</v>
-      </c>
-      <c r="O28" t="s">
-        <v>214</v>
-      </c>
-      <c r="P28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" t="s">
-        <v>216</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" t="s">
-        <v>217</v>
-      </c>
-      <c r="E29" t="s">
-        <v>218</v>
-      </c>
-      <c r="F29" t="s">
-        <v>219</v>
-      </c>
-      <c r="G29" t="s">
-        <v>220</v>
-      </c>
-      <c r="H29">
-        <v>15</v>
-      </c>
-      <c r="I29">
-        <v>180</v>
-      </c>
-      <c r="J29">
-        <v>2700</v>
-      </c>
-      <c r="K29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L29">
-        <v>3</v>
-      </c>
-      <c r="M29" s="1">
-        <v>45361</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29" t="s">
-        <v>222</v>
-      </c>
-      <c r="P29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" t="s">
-        <v>225</v>
-      </c>
-      <c r="E30" t="s">
-        <v>226</v>
-      </c>
-      <c r="F30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>12800</v>
-      </c>
-      <c r="J30">
-        <v>25600</v>
-      </c>
-      <c r="K30" t="s">
-        <v>228</v>
-      </c>
-      <c r="L30">
-        <v>2</v>
-      </c>
-      <c r="M30" s="1">
-        <v>45344</v>
-      </c>
-      <c r="N30">
-        <v>4</v>
-      </c>
-      <c r="O30" t="s">
-        <v>229</v>
-      </c>
-      <c r="P30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>232</v>
-      </c>
-      <c r="E31" t="s">
-        <v>233</v>
-      </c>
-      <c r="F31" t="s">
-        <v>234</v>
-      </c>
-      <c r="G31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31">
-        <v>25</v>
-      </c>
-      <c r="I31">
-        <v>380</v>
-      </c>
-      <c r="J31">
-        <v>9500</v>
-      </c>
-      <c r="K31" t="s">
-        <v>235</v>
-      </c>
-      <c r="L31">
-        <v>2</v>
-      </c>
-      <c r="M31" s="1">
-        <v>45356</v>
-      </c>
-      <c r="N31">
-        <v>5</v>
-      </c>
-      <c r="O31" t="s">
-        <v>236</v>
-      </c>
-      <c r="P31" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
